--- a/data/trans_orig/IP42B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP42B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C3241B9-B81C-4B41-B38C-7131BF0F2A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE3AC69-6D7E-43E9-A335-BEA708181CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6B81CFE-CCAE-48A3-805E-0279AE17187C}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{401839C3-8019-4D39-B48A-21101F5928A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
-  <si>
-    <t>Adulto según si la persona sustentadora principal percibe o no una pensión en 2007 (Tasa respuesta: 21,1%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
+  <si>
+    <t>Adulto según si su esposo/a y/o pareja percibe o no una pensión en 2007 (Tasa respuesta: 21,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,61 +73,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
     <t>78,41%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,592 +136,580 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según si su esposo/a y/o pareja percibe o no una pensión en 2012 (Tasa respuesta: 24,96%)</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>Adulto según si su esposo/a y/o pareja percibe o no una pensión en 2016 (Tasa respuesta: 30,24%)</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según si la persona sustentadora principal percibe o no una pensión en 2012 (Tasa respuesta: 24,96%)</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>Adulto según si la persona sustentadora principal percibe o no una pensión en 2016 (Tasa respuesta: 30,24%)</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061A4A56-7886-4544-A803-50D092C531B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9E97A2-F0B2-4BD0-879C-EC524EA3A0D3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1251,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>4204</v>
+        <v>6936</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1266,10 +1254,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>6936</v>
+        <v>4204</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1302,10 +1290,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>15265</v>
+        <v>14736</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1317,10 +1305,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>14736</v>
+        <v>15265</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1353,25 +1341,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>21672</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>29</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>19469</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7">
-        <v>21672</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1406,10 +1394,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>6193</v>
+        <v>3449</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1421,10 +1409,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>3449</v>
+        <v>6193</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1439,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>9642</v>
+        <v>9641</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1457,10 +1445,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D8" s="7">
-        <v>108069</v>
+        <v>92347</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1472,10 +1460,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="I8" s="7">
-        <v>92347</v>
+        <v>108069</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1508,25 +1496,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>144</v>
+      </c>
+      <c r="D9" s="7">
+        <v>95796</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>171</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>114262</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>144</v>
-      </c>
-      <c r="I9" s="7">
-        <v>95796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1541,7 +1529,7 @@
         <v>315</v>
       </c>
       <c r="N9" s="7">
-        <v>210058</v>
+        <v>210057</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1561,10 +1549,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1367</v>
+        <v>2111</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1576,10 +1564,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2111</v>
+        <v>1367</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1612,10 +1600,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>25697</v>
+        <v>16458</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1627,10 +1615,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>16458</v>
+        <v>25697</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1663,25 +1651,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18569</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>41</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>27064</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>27</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18569</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1716,10 +1704,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>11764</v>
+        <v>12496</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1731,10 +1719,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>12496</v>
+        <v>11764</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1767,10 +1755,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="D14" s="7">
-        <v>149031</v>
+        <v>123541</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1782,10 +1770,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="I14" s="7">
-        <v>123541</v>
+        <v>149031</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1818,25 +1806,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>203</v>
+      </c>
+      <c r="D15" s="7">
+        <v>136037</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>241</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>160795</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>203</v>
-      </c>
-      <c r="I15" s="7">
-        <v>136037</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1884,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B3BDD0-6728-4FDB-AC0F-A49494032E7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4DF781-B90A-42C3-B05B-A5452EC61AE2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2002,10 +1990,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>8169</v>
+        <v>10909</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2017,10 +2005,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>10909</v>
+        <v>8169</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2053,10 +2041,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>23796</v>
+        <v>15004</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2068,10 +2056,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>15004</v>
+        <v>23796</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2104,25 +2092,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25913</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>46</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>31965</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>38</v>
-      </c>
-      <c r="I6" s="7">
-        <v>25913</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2157,10 +2145,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>16717</v>
+        <v>14942</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2172,10 +2160,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>14942</v>
+        <v>16717</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2208,10 +2196,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D8" s="7">
-        <v>112982</v>
+        <v>115643</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2223,10 +2211,10 @@
         <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>115643</v>
+        <v>112982</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2259,25 +2247,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>187</v>
+      </c>
+      <c r="D9" s="7">
+        <v>130585</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>183</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>129699</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>187</v>
-      </c>
-      <c r="I9" s="7">
-        <v>130585</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2312,34 +2300,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>1507</v>
+        <v>2373</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2373</v>
+        <v>1507</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2348,13 +2336,13 @@
         <v>3880</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,34 +2351,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7">
+        <v>19836</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7">
         <v>36</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>24863</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>28</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19836</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>64</v>
@@ -2399,13 +2387,13 @@
         <v>44700</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,25 +2402,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22209</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>38</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>26370</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>32</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22209</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2467,34 +2455,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28224</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="7">
         <v>39</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>26394</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="7">
-        <v>41</v>
-      </c>
-      <c r="I13" s="7">
-        <v>28224</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -2503,13 +2491,13 @@
         <v>54618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,34 +2506,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>216</v>
+      </c>
+      <c r="D14" s="7">
+        <v>150483</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="7">
         <v>228</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>161640</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="7">
-        <v>216</v>
-      </c>
-      <c r="I14" s="7">
-        <v>150483</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>444</v>
@@ -2554,13 +2542,13 @@
         <v>312123</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,25 +2557,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>257</v>
+      </c>
+      <c r="D15" s="7">
+        <v>178707</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>267</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188034</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>257</v>
-      </c>
-      <c r="I15" s="7">
-        <v>178707</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2635,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74C7F4F-0768-4AD3-80CE-E74A2EE17F0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DBDE09-B434-4F5C-BC89-46EDEC5E999A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2652,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2756,31 +2744,31 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>3439</v>
+        <v>3416</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>3416</v>
+        <v>3439</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2789,13 +2777,13 @@
         <v>6855</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,31 +2795,31 @@
         <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>25593</v>
+        <v>24803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>24803</v>
+        <v>25593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -2840,13 +2828,13 @@
         <v>50396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,7 +2846,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="7">
-        <v>29032</v>
+        <v>28219</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2873,7 +2861,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="7">
-        <v>28219</v>
+        <v>29032</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2908,34 +2896,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11030</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="7">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>11438</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="7">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11030</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -2944,13 +2932,13 @@
         <v>22468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,34 +2947,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>199</v>
+      </c>
+      <c r="D8" s="7">
+        <v>130041</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="7">
         <v>227</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>159028</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="7">
-        <v>199</v>
-      </c>
-      <c r="I8" s="7">
-        <v>130041</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>426</v>
@@ -2995,13 +2983,13 @@
         <v>289070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,25 +2998,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>216</v>
+      </c>
+      <c r="D9" s="7">
+        <v>141071</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>243</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>170466</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>216</v>
-      </c>
-      <c r="I9" s="7">
-        <v>141071</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3066,31 +3054,31 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>2690</v>
+        <v>2584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2584</v>
+        <v>2690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3099,13 +3087,13 @@
         <v>5273</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,31 +3105,31 @@
         <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>32347</v>
+        <v>30199</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>30199</v>
+        <v>32347</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -3150,13 +3138,13 @@
         <v>62547</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,7 +3156,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="7">
-        <v>35037</v>
+        <v>32783</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3183,7 +3171,7 @@
         <v>50</v>
       </c>
       <c r="I12" s="7">
-        <v>32783</v>
+        <v>35037</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3218,34 +3206,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7">
+        <v>17029</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="7">
         <v>25</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>17567</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17029</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3254,13 +3242,13 @@
         <v>34596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,34 +3257,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>282</v>
+      </c>
+      <c r="D14" s="7">
+        <v>185044</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="7">
         <v>310</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>216968</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H14" s="7">
-        <v>282</v>
-      </c>
-      <c r="I14" s="7">
-        <v>185044</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>592</v>
@@ -3305,13 +3293,13 @@
         <v>402012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,25 +3308,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>308</v>
+      </c>
+      <c r="D15" s="7">
+        <v>202073</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>335</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>234535</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>308</v>
-      </c>
-      <c r="I15" s="7">
-        <v>202073</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
